--- a/com.avercast/src/main/java/Resources/FlipkartData.xlsx
+++ b/com.avercast/src/main/java/Resources/FlipkartData.xlsx
@@ -3,16 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2BD0A70D-C348-4C6E-9442-B7E7D3771293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D65031-8C9A-4F15-974F-D09A76553246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" xr2:uid="{89D67A8B-6300-4B13-9FE3-638B71075324}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89D67A8B-6300-4B13-9FE3-638B71075324}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:H11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Parameter</t>
   </si>
@@ -87,9 +90,6 @@
     <t>MobileNo</t>
   </si>
   <si>
-    <t>Zirave</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -100,15 +100,29 @@
   </si>
   <si>
     <t>Tel-Shindkheda, Dist-Dhule</t>
+  </si>
+  <si>
+    <t>Enter Your Email Or Phone</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>Enter Mo.No</t>
+  </si>
+  <si>
+    <t>5555555555554444</t>
+  </si>
+  <si>
+    <t>Dondaicha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -155,10 +169,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,21 +499,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7256AC-4868-49AC-B6A7-493D60BBF112}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="2" max="2" width="72" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -500,23 +521,23 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>7798128544</v>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>112233</v>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -524,7 +545,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
@@ -533,7 +554,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -541,7 +562,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -549,15 +570,15 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
-        <v>5555555555554440</v>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>12</v>
       </c>
     </row>
@@ -565,7 +586,7 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>25</v>
       </c>
     </row>
@@ -573,7 +594,7 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>123</v>
       </c>
     </row>
@@ -581,7 +602,7 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -589,15 +610,15 @@
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
-        <v>7798128544</v>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <v>425408</v>
       </c>
     </row>
@@ -605,185 +626,31 @@
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6A757A-9519-42E5-A43E-66CA6A046A19}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7798128544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>112233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5555555555554440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7798128544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>425408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>